--- a/server/testsite/areaLog.xlsx
+++ b/server/testsite/areaLog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="17">
   <si>
     <t>date</t>
   </si>
@@ -25,7 +25,7 @@
     <t>my_region3</t>
   </si>
   <si>
-    <t>20210913</t>
+    <t>20210914</t>
   </si>
   <si>
     <t>춘천시</t>
@@ -34,6 +34,9 @@
     <t>수원시 장안구</t>
   </si>
   <si>
+    <t>홍천군</t>
+  </si>
+  <si>
     <t>후평동</t>
   </si>
   <si>
@@ -56,6 +59,12 @@
   </si>
   <si>
     <t>소양로1가</t>
+  </si>
+  <si>
+    <t>홍천읍</t>
+  </si>
+  <si>
+    <t>영귀미면</t>
   </si>
 </sst>
 </file>
@@ -413,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -441,7 +450,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -455,7 +464,7 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -469,7 +478,7 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -483,7 +492,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -497,7 +506,7 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -511,7 +520,7 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -525,7 +534,7 @@
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -539,7 +548,7 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -553,7 +562,7 @@
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -567,7 +576,7 @@
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -581,7 +590,7 @@
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -595,7 +604,7 @@
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -609,21 +618,105 @@
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>0</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15">
+        <v>20210913</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>20210914</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>20210914</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>20210914</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>20210914</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>20210914</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
         <v>3</v>
       </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>12</v>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/server/testsite/areaLog.xlsx
+++ b/server/testsite/areaLog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="17">
   <si>
     <t>date</t>
   </si>
@@ -25,7 +25,7 @@
     <t>my_region3</t>
   </si>
   <si>
-    <t>20210914</t>
+    <t>20211025</t>
   </si>
   <si>
     <t>춘천시</t>
@@ -422,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -709,14 +709,28 @@
       <c r="A21" s="1">
         <v>0</v>
       </c>
-      <c r="B21" t="s">
-        <v>3</v>
+      <c r="B21">
+        <v>20210914</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/server/testsite/areaLog.xlsx
+++ b/server/testsite/areaLog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="17">
   <si>
     <t>date</t>
   </si>
@@ -25,7 +25,7 @@
     <t>my_region3</t>
   </si>
   <si>
-    <t>20211025</t>
+    <t>20211102</t>
   </si>
   <si>
     <t>춘천시</t>
@@ -422,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -723,14 +723,28 @@
       <c r="A22" s="1">
         <v>0</v>
       </c>
-      <c r="B22" t="s">
-        <v>3</v>
+      <c r="B22">
+        <v>20211025</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
       <c r="D22" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/server/testsite/areaLog.xlsx
+++ b/server/testsite/areaLog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="17">
   <si>
     <t>date</t>
   </si>
@@ -25,7 +25,7 @@
     <t>my_region3</t>
   </si>
   <si>
-    <t>20211102</t>
+    <t>20210914</t>
   </si>
   <si>
     <t>춘천시</t>
@@ -422,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -709,41 +709,13 @@
       <c r="A21" s="1">
         <v>0</v>
       </c>
-      <c r="B21">
-        <v>20210914</v>
+      <c r="B21" t="s">
+        <v>3</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1">
-        <v>0</v>
-      </c>
-      <c r="B22">
-        <v>20211025</v>
-      </c>
-      <c r="C22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1">
-        <v>0</v>
-      </c>
-      <c r="B23" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" t="s">
         <v>8</v>
       </c>
     </row>

--- a/server/testsite/areaLog.xlsx
+++ b/server/testsite/areaLog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="17">
   <si>
     <t>date</t>
   </si>
@@ -25,7 +25,7 @@
     <t>my_region3</t>
   </si>
   <si>
-    <t>20211102</t>
+    <t>20211106</t>
   </si>
   <si>
     <t>춘천시</t>
@@ -422,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -737,14 +737,28 @@
       <c r="A23" s="1">
         <v>0</v>
       </c>
-      <c r="B23" t="s">
-        <v>3</v>
+      <c r="B23">
+        <v>20211102</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/server/testsite/areaLog.xlsx
+++ b/server/testsite/areaLog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="17">
   <si>
     <t>date</t>
   </si>
@@ -25,7 +25,7 @@
     <t>my_region3</t>
   </si>
   <si>
-    <t>20211106</t>
+    <t>20211120</t>
   </si>
   <si>
     <t>춘천시</t>
@@ -422,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -751,14 +751,28 @@
       <c r="A24" s="1">
         <v>0</v>
       </c>
-      <c r="B24" t="s">
-        <v>3</v>
+      <c r="B24">
+        <v>20211106</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
       </c>
       <c r="D24" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/server/testsite/areaLog.xlsx
+++ b/server/testsite/areaLog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="17">
   <si>
     <t>date</t>
   </si>
@@ -25,7 +25,7 @@
     <t>my_region3</t>
   </si>
   <si>
-    <t>20211120</t>
+    <t>20211129</t>
   </si>
   <si>
     <t>춘천시</t>
@@ -422,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -765,14 +765,50 @@
       <c r="A25" s="1">
         <v>0</v>
       </c>
-      <c r="B25" t="s">
-        <v>3</v>
+      <c r="B25">
+        <v>20211120</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
       <c r="D25" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>20211127</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>20211129</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/server/testsite/areaLog.xlsx
+++ b/server/testsite/areaLog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="17">
   <si>
     <t>date</t>
   </si>
@@ -25,7 +25,7 @@
     <t>my_region3</t>
   </si>
   <si>
-    <t>20211129</t>
+    <t>20211130</t>
   </si>
   <si>
     <t>춘천시</t>
@@ -422,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -765,50 +765,14 @@
       <c r="A25" s="1">
         <v>0</v>
       </c>
-      <c r="B25">
-        <v>20211120</v>
+      <c r="B25" t="s">
+        <v>3</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="1">
-        <v>0</v>
-      </c>
-      <c r="B26">
-        <v>20211127</v>
-      </c>
-      <c r="C26" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="1">
-        <v>0</v>
-      </c>
-      <c r="B27">
-        <v>20211129</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="1">
-        <v>0</v>
-      </c>
-      <c r="B28" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/server/testsite/areaLog.xlsx
+++ b/server/testsite/areaLog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="18">
   <si>
     <t>date</t>
   </si>
@@ -25,7 +25,7 @@
     <t>my_region3</t>
   </si>
   <si>
-    <t>20211129</t>
+    <t>20211201</t>
   </si>
   <si>
     <t>춘천시</t>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>영귀미면</t>
+  </si>
+  <si>
+    <t>온의동</t>
   </si>
 </sst>
 </file>
@@ -422,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -801,14 +804,28 @@
       <c r="A28" s="1">
         <v>0</v>
       </c>
-      <c r="B28" t="s">
-        <v>3</v>
+      <c r="B28">
+        <v>20211129</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
       </c>
       <c r="D28" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/server/testsite/areaLog.xlsx
+++ b/server/testsite/areaLog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="18">
   <si>
     <t>date</t>
   </si>
@@ -25,7 +25,7 @@
     <t>my_region3</t>
   </si>
   <si>
-    <t>20211130</t>
+    <t>20211201</t>
   </si>
   <si>
     <t>춘천시</t>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>영귀미면</t>
+  </si>
+  <si>
+    <t>온의동</t>
   </si>
 </sst>
 </file>
@@ -422,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -765,14 +768,64 @@
       <c r="A25" s="1">
         <v>0</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25">
+        <v>20211120</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>20211127</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>20211129</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>20211129</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
         <v>3</v>
       </c>
-      <c r="C25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" t="s">
-        <v>14</v>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
